--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>005267</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>嘉实价值精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>44.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005267</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实价值精选股票</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1737,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.72</v>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2174,561 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.65</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2296,100 +2521,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6950</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2464,22 +2595,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.6950</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2492,6 +2623,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
+++ b/数据整理/stocks/A股/上证主板/600867-通化东宝.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.65</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1884,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2396,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2521,100 +3182,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6950</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2689,22 +3256,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7233</t>
+          <t>0.6950</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2722,242 +3289,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005267</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实价值精选股票</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.92</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>86.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7968</t>
+          <t>0.7233</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002264</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏乐享健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0206</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8196</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>